--- a/Doc/DBの説明.xlsx
+++ b/Doc/DBの説明.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F0741-0B67-4700-808D-7122CF574F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A6C349-A6B6-4F81-BFF2-2024CDF90492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="2115" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{AE0446BD-C049-4B24-96B0-C20E57ACA065}"/>
+    <workbookView xWindow="12780" yWindow="1125" windowWidth="24525" windowHeight="12975" firstSheet="6" activeTab="7" xr2:uid="{AE0446BD-C049-4B24-96B0-C20E57ACA065}"/>
   </bookViews>
   <sheets>
-    <sheet name="charge" sheetId="1" r:id="rId1"/>
-    <sheet name="email" sheetId="2" r:id="rId2"/>
-    <sheet name="homedata" sheetId="3" r:id="rId3"/>
-    <sheet name="items" sheetId="4" r:id="rId4"/>
-    <sheet name="limited" sheetId="5" r:id="rId5"/>
-    <sheet name="myshop" sheetId="6" r:id="rId6"/>
-    <sheet name="statistics" sheetId="7" r:id="rId7"/>
-    <sheet name="userdata" sheetId="8" r:id="rId8"/>
+    <sheet name="blueprint" sheetId="9" r:id="rId1"/>
+    <sheet name="charge" sheetId="1" r:id="rId2"/>
+    <sheet name="email" sheetId="2" r:id="rId3"/>
+    <sheet name="exchange_points" sheetId="10" r:id="rId4"/>
+    <sheet name="friend" sheetId="11" r:id="rId5"/>
+    <sheet name="homedata" sheetId="3" r:id="rId6"/>
+    <sheet name="items" sheetId="4" r:id="rId7"/>
+    <sheet name="limited" sheetId="5" r:id="rId8"/>
+    <sheet name="loginbonus" sheetId="12" r:id="rId9"/>
+    <sheet name="myshop" sheetId="6" r:id="rId10"/>
+    <sheet name="notice" sheetId="13" r:id="rId11"/>
+    <sheet name="statistics" sheetId="7" r:id="rId12"/>
+    <sheet name="statistics_user" sheetId="14" r:id="rId13"/>
+    <sheet name="subscription" sheetId="15" r:id="rId14"/>
+    <sheet name="userdata" sheetId="8" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -316,29 +323,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>firstUseMyShop</t>
-  </si>
-  <si>
-    <t>マイショップを始めい使うか（実装なし）</t>
-    <rPh sb="7" eb="8">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>myshopid</t>
   </si>
   <si>
     <t>nickname</t>
-  </si>
-  <si>
-    <t>item_guid</t>
   </si>
   <si>
     <t>site</t>
@@ -426,26 +414,6 @@
     <t>coin3</t>
   </si>
   <si>
-    <t>updated_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>myShopLv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -501,6 +469,474 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+  </si>
+  <si>
+    <t>GUID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図データ</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>メール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交換したポイント</t>
+    <rPh sb="0" eb="2">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギフトカード金額</t>
+    <rPh sb="6" eb="8">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギフトカード送ったかのタグ</t>
+    <rPh sb="6" eb="7">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>follower</t>
+  </si>
+  <si>
+    <t>フォローリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォロワーリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longtext</t>
+  </si>
+  <si>
+    <t>textureName</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>アイテムアイコン名（設計図）</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セッケイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guide_end</t>
+  </si>
+  <si>
+    <t>guide_end2</t>
+  </si>
+  <si>
+    <t>subscription_mail_added01</t>
+  </si>
+  <si>
+    <t>subscription_mail_added02</t>
+  </si>
+  <si>
+    <t>subscription_mail_added03</t>
+  </si>
+  <si>
+    <t>loginbonus_added</t>
+  </si>
+  <si>
+    <t>clear_mission_main</t>
+  </si>
+  <si>
+    <t>clear_mission_daily</t>
+  </si>
+  <si>
+    <t>clear_mission_limit</t>
+  </si>
+  <si>
+    <t>logined</t>
+  </si>
+  <si>
+    <t>login_number</t>
+  </si>
+  <si>
+    <t>goodNum_total</t>
+  </si>
+  <si>
+    <t>goodNum_daily</t>
+  </si>
+  <si>
+    <t>ホームのチュートリアル完了タグ</t>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場のチュートリアル完了タグ</t>
+    <rPh sb="0" eb="2">
+      <t>イチバ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブスクリプション１利用してるかのタグ</t>
+    <rPh sb="10" eb="12">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブスクリプション２利用してるかのタグ</t>
+    <rPh sb="10" eb="12">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブスクリプション３利用してるかのタグ</t>
+    <rPh sb="10" eb="12">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボーナスもらったかのタグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainミッション完成情報</t>
+    <rPh sb="9" eb="11">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dailyミッション完成情報</t>
+    <rPh sb="10" eb="12">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間限定ミッション完成情報</t>
+    <rPh sb="0" eb="4">
+      <t>ジカンゲンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしたかのタグ（毎日更新）</t>
+    <rPh sb="11" eb="13">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン総数</t>
+    <rPh sb="4" eb="6">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねもらった総数</t>
+    <rPh sb="7" eb="9">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねした数（毎日更新）</t>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>マイニチコウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loginbonusid</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>start_at</t>
+  </si>
+  <si>
+    <t>end_at</t>
+  </si>
+  <si>
+    <t>ログインボーナスID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボーナス名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクティブしてるかのタグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時間</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時間</t>
+    <rPh sb="0" eb="4">
+      <t>シュウリョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemid</t>
+  </si>
+  <si>
+    <t>newname</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>sellNum</t>
+  </si>
+  <si>
+    <t>設計図名</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図アイコンkey（S３）</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売数</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>newflag</t>
+  </si>
+  <si>
+    <t>activedate</t>
+  </si>
+  <si>
+    <t>お知らせカテゴリ</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newフラグタグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subscription_charge</t>
+  </si>
+  <si>
+    <t>サブスクリプション課金金額</t>
+    <rPh sb="9" eb="11">
+      <t>カキン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gacha</t>
+  </si>
+  <si>
+    <t>UIGD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャした総数</t>
+    <rPh sb="5" eb="7">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>サブスクリプションタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロドック名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買った時間</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破棄フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pw</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>myShopLv</t>
+  </si>
+  <si>
+    <t>subscriptionLv01</t>
+  </si>
+  <si>
+    <t>subscriptionLv02</t>
+  </si>
+  <si>
+    <t>subscriptionLv03</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブスクリプション１のメールもうもらうタグ（毎日更新）</t>
+    <rPh sb="22" eb="26">
+      <t>マイニチコウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブスクリプション３のメールもうもらうタグ（毎日更新）</t>
+    <rPh sb="22" eb="26">
+      <t>マイニチコウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブスクリプション２のメールもうもらうタグ（毎日更新）</t>
+    <rPh sb="22" eb="26">
+      <t>マイニチコウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -583,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,6 +1034,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,11 +1351,734 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779ECCC6-5E5F-4CA4-9231-C7989FAA1B2F}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE8423C-5A22-4318-BE32-F19321D83849}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB919512-CB2A-4A0D-B696-586CB9E9E712}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2311E391-EE1B-42F3-92EF-642123F21C63}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A7BDBF-6FBA-463A-9F3E-CA008FEF0B61}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD9627F-72FB-48FC-B5BB-C597CB8C6AA3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC75D881-FE7F-4DCC-BD7D-D467F01884D6}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DDA4B9-1D52-4A78-9D36-C2AE93B32E97}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -999,12 +2161,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9603417F-C225-41A1-9344-344D9D204E9C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1118,7 +2280,169 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2685A523-89C8-413D-A08F-A3BD9DB64135}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE0CC4C-80A5-496C-A33E-301BF2AF3BD0}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322EADB7-BCBD-4F51-9590-C5F76C60EE88}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1171,12 +2495,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DE3240-18B1-4015-8349-5532D8059203}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1190,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
@@ -1201,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1223,7 +2547,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -1234,7 +2558,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -1245,7 +2569,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
@@ -1256,7 +2580,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -1264,249 +2588,35 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA13DA-3CAC-46D4-8947-F1BD295D90B4}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE8423C-5A22-4318-BE32-F19321D83849}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2311E391-EE1B-42F3-92EF-642123F21C63}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1516,33 +2626,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC75D881-FE7F-4DCC-BD7D-D467F01884D6}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA13DA-3CAC-46D4-8947-F1BD295D90B4}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1553,112 +2663,231 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C38CF-318C-4BDE-8DB3-2642BEB1E91E}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>89</v>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/DBの説明.xlsx
+++ b/Doc/DBの説明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A6C349-A6B6-4F81-BFF2-2024CDF90492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF7F93-BFE0-44FA-AEBA-4ADD8E5BCA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="1125" windowWidth="24525" windowHeight="12975" firstSheet="6" activeTab="7" xr2:uid="{AE0446BD-C049-4B24-96B0-C20E57ACA065}"/>
+    <workbookView xWindow="8625" yWindow="2430" windowWidth="24525" windowHeight="12975" firstSheet="6" activeTab="10" xr2:uid="{AE0446BD-C049-4B24-96B0-C20E57ACA065}"/>
   </bookViews>
   <sheets>
     <sheet name="blueprint" sheetId="9" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="183">
   <si>
     <t>id</t>
   </si>
@@ -938,6 +938,30 @@
     <rPh sb="22" eb="26">
       <t>マイニチコウシン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>titleIcon</t>
+  </si>
+  <si>
+    <t>detailIcon</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>タイトルアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細アイコン</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンURL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1558,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB919512-CB2A-4A0D-B696-586CB9E9E712}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1570,7 +1594,7 @@
     <col min="2" max="2" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1605,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>147</v>
       </c>
@@ -1603,7 +1627,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>149</v>
       </c>
@@ -1614,7 +1638,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1627,18 +1651,52 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1741,7 +1799,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1805,7 +1863,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1816,7 +1874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>159</v>
       </c>
@@ -1838,7 +1896,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1849,7 +1907,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2306,7 +2364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2317,7 +2375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -2350,7 +2408,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
@@ -2361,7 +2419,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2403,7 +2461,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2629,7 +2687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA13DA-3CAC-46D4-8947-F1BD295D90B4}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2683,7 +2741,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>105</v>
       </c>
@@ -2694,7 +2752,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>106</v>
       </c>
@@ -2705,7 +2763,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>107</v>
       </c>
@@ -2835,7 +2893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>129</v>
       </c>
@@ -2846,7 +2904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
@@ -2857,7 +2915,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>132</v>
       </c>
@@ -2868,7 +2926,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -2879,7 +2937,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>134</v>
       </c>

--- a/Doc/DBの説明.xlsx
+++ b/Doc/DBの説明.xlsx
@@ -1,33 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF7F93-BFE0-44FA-AEBA-4ADD8E5BCA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1A7347-D412-4695-86C0-BE0158F04EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="2430" windowWidth="24525" windowHeight="12975" firstSheet="6" activeTab="10" xr2:uid="{AE0446BD-C049-4B24-96B0-C20E57ACA065}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="17" xr2:uid="{AE0446BD-C049-4B24-96B0-C20E57ACA065}"/>
   </bookViews>
   <sheets>
     <sheet name="blueprint" sheetId="9" r:id="rId1"/>
     <sheet name="charge" sheetId="1" r:id="rId2"/>
     <sheet name="email" sheetId="2" r:id="rId3"/>
-    <sheet name="exchange_points" sheetId="10" r:id="rId4"/>
-    <sheet name="friend" sheetId="11" r:id="rId5"/>
-    <sheet name="homedata" sheetId="3" r:id="rId6"/>
-    <sheet name="items" sheetId="4" r:id="rId7"/>
-    <sheet name="limited" sheetId="5" r:id="rId8"/>
-    <sheet name="loginbonus" sheetId="12" r:id="rId9"/>
-    <sheet name="myshop" sheetId="6" r:id="rId10"/>
-    <sheet name="notice" sheetId="13" r:id="rId11"/>
-    <sheet name="statistics" sheetId="7" r:id="rId12"/>
-    <sheet name="statistics_user" sheetId="14" r:id="rId13"/>
-    <sheet name="subscription" sheetId="15" r:id="rId14"/>
-    <sheet name="userdata" sheetId="8" r:id="rId15"/>
+    <sheet name="equipment" sheetId="16" r:id="rId4"/>
+    <sheet name="exchange_points" sheetId="10" r:id="rId5"/>
+    <sheet name="friend" sheetId="11" r:id="rId6"/>
+    <sheet name="homedata" sheetId="3" r:id="rId7"/>
+    <sheet name="items" sheetId="4" r:id="rId8"/>
+    <sheet name="limited" sheetId="5" r:id="rId9"/>
+    <sheet name="loginbonus" sheetId="12" r:id="rId10"/>
+    <sheet name="myshop" sheetId="6" r:id="rId11"/>
+    <sheet name="notice" sheetId="13" r:id="rId12"/>
+    <sheet name="shop_limitedcount" sheetId="17" r:id="rId13"/>
+    <sheet name="statistics" sheetId="7" r:id="rId14"/>
+    <sheet name="statistics_user" sheetId="14" r:id="rId15"/>
+    <sheet name="statistics_user_gacha" sheetId="18" r:id="rId16"/>
+    <sheet name="subscription" sheetId="15" r:id="rId17"/>
+    <sheet name="userdata" sheetId="8" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="221">
   <si>
     <t>id</t>
   </si>
@@ -578,9 +581,6 @@
     <t>subscription_mail_added03</t>
   </si>
   <si>
-    <t>loginbonus_added</t>
-  </si>
-  <si>
     <t>clear_mission_main</t>
   </si>
   <si>
@@ -600,23 +600,6 @@
   </si>
   <si>
     <t>goodNum_daily</t>
-  </si>
-  <si>
-    <t>ホームのチュートリアル完了タグ</t>
-    <rPh sb="11" eb="13">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>市場のチュートリアル完了タグ</t>
-    <rPh sb="0" eb="2">
-      <t>イチバ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>サブスクリプション１利用してるかのタグ</t>
@@ -640,10 +623,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインボーナスもらったかのタグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mainミッション完成情報</t>
     <rPh sb="9" eb="11">
       <t>カンセイ</t>
@@ -711,9 +690,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>loginbonusid</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -727,17 +703,6 @@
   </si>
   <si>
     <t>end_at</t>
-  </si>
-  <si>
-    <t>ログインボーナスID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインボーナス名</t>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アクティブしてるかのタグ</t>
@@ -844,13 +809,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ガチャした総数</t>
-    <rPh sb="5" eb="7">
-      <t>ソウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -962,6 +920,227 @@
   </si>
   <si>
     <t>アイコンURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_guid</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>itemsテーブルGUID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備のスキル（101,150）</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guide_end3</t>
+  </si>
+  <si>
+    <t>guide_end4</t>
+  </si>
+  <si>
+    <t>guide_end5</t>
+  </si>
+  <si>
+    <t>loginBonus</t>
+  </si>
+  <si>
+    <t>loginBonusStep</t>
+  </si>
+  <si>
+    <t>main_task</t>
+  </si>
+  <si>
+    <t>main_task_count</t>
+  </si>
+  <si>
+    <t>チュートリアル完了タグ</t>
+  </si>
+  <si>
+    <t>ログインボーナスアイテム（1001,1002)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボーナスアイテム数（10,15）</t>
+    <rPh sb="12" eb="13">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインタスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今のメインタスク完成度</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>themeTexture</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>itemCounts</t>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ（１＝７日、２＝１４日）</t>
+    <rPh sb="7" eb="8">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル用テクスチャ</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボーナス（101,102,103）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数（10,15,30）</t>
+    <rPh sb="0" eb="1">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(70)</t>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先順位</t>
+  </si>
+  <si>
+    <t>pickup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選び出す</t>
+  </si>
+  <si>
+    <t>shopId</t>
+  </si>
+  <si>
+    <t>limitedCount</t>
+  </si>
+  <si>
+    <t>ショップID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限数</t>
+    <rPh sb="0" eb="2">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maxArrivedFloor</t>
+  </si>
+  <si>
+    <t>totalSetBlockCount</t>
+  </si>
+  <si>
+    <t>lastFloorCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大階段</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後の階段</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック置いたトータル数</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gachaGroup</t>
+  </si>
+  <si>
+    <t>ガチャ数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>ユーザーレベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー経験値</t>
+    <rPh sb="4" eb="7">
+      <t>ケイケンチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1429,11 +1608,130 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C38CF-318C-4BDE-8DB3-2642BEB1E91E}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE8423C-5A22-4318-BE32-F19321D83849}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1477,7 +1775,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1488,24 +1786,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1543,13 +1841,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -1580,18 +1878,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB919512-CB2A-4A0D-B696-586CB9E9E712}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -1607,89 +1905,111 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1700,12 +2020,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DCAC87-178C-495E-86B8-BF3568C0824E}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2311E391-EE1B-42F3-92EF-642123F21C63}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1760,13 +2145,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1775,20 +2160,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A7BDBF-6FBA-463A-9F3E-CA008FEF0B61}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1812,13 +2198,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1827,12 +2235,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CE23A4-9624-4FC4-8A98-7E2EF84397BD}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD9627F-72FB-48FC-B5BB-C597CB8C6AA3}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1841,7 +2313,7 @@
     <col min="2" max="2" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1854,13 +2326,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1876,13 +2348,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1893,7 +2365,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1904,7 +2376,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1915,7 +2387,7 @@
         <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1924,18 +2396,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC75D881-FE7F-4DCC-BD7D-D467F01884D6}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -1962,7 +2434,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1973,7 +2445,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -2006,13 +2478,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -2028,100 +2500,122 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2224,7 +2718,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2339,11 +2833,76 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D2A667-3C35-4833-823F-250FCA49A619}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2685A523-89C8-413D-A08F-A3BD9DB64135}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2353,7 +2912,7 @@
     <col min="3" max="3" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2436,7 +2995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE0CC4C-80A5-496C-A33E-301BF2AF3BD0}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2450,7 +3009,7 @@
     <col min="2" max="2" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +3059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322EADB7-BCBD-4F51-9590-C5F76C60EE88}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2553,12 +3112,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DE3240-18B1-4015-8349-5532D8059203}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2683,18 +3242,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DA13DA-3CAC-46D4-8947-F1BD295D90B4}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -2727,7 +3286,7 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -2738,214 +3297,194 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C38CF-318C-4BDE-8DB3-2642BEB1E91E}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>139</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
